--- a/src/main/resources/Колеры.xlsx
+++ b/src/main/resources/Колеры.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
   <si>
     <t xml:space="preserve">white</t>
   </si>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">dim gray</t>
   </si>
   <si>
-    <t xml:space="preserve">6B6B6B</t>
+    <t xml:space="preserve">#6B6B6B</t>
   </si>
   <si>
     <t xml:space="preserve">outer space</t>
@@ -77,6 +77,168 @@
   </si>
   <si>
     <t xml:space="preserve">#F6CBCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruddy pink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#EC9798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light carmine pink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#E36667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cinnabar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ED4139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persian red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#CF3932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vivid auburn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#9A2B25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persian plum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#681D19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">azureish white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#CDE1F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pale cerulean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#9CC3E5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue-gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#6CA6D9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cyan-blue azure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#3B83C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palatinate blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#2A47F6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark cerulean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#145390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark midnight blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#0F3A62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pastel gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#D7EAD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light moss green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#B3D6A9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pistachio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#8FC380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#77F241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#66A657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">japanese laurel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#3A762B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mughal green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#29501F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blanched almond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#FFF2CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caramel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#FEE59C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dandelion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#FCD86F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lemon yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#FDF84E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#F2C246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">satin sheen gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#BE8F35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field drab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#7F6124</t>
   </si>
 </sst>
 </file>
@@ -194,7 +356,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -225,10 +387,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -331,7 +489,7 @@
   <dimension ref="A1:E733"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -459,65 +617,383 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D9" s="4"/>
+      <c r="A9" s="1" t="n">
+        <v>2022062509</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D10" s="4"/>
+      <c r="A10" s="1" t="n">
+        <v>2022062510</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D11" s="4"/>
+      <c r="A11" s="1" t="n">
+        <v>2022062511</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D12" s="4"/>
+      <c r="A12" s="1" t="n">
+        <v>2022062512</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="8"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="1" t="n">
+        <v>2022062513</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="8"/>
-      <c r="D14" s="4"/>
+      <c r="A14" s="1" t="n">
+        <v>2022062514</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="8"/>
-      <c r="D15" s="4"/>
+      <c r="A15" s="1" t="n">
+        <v>2022062515</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D16" s="4"/>
+      <c r="A16" s="1" t="n">
+        <v>2022062516</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D17" s="4"/>
+      <c r="A17" s="1" t="n">
+        <v>2022062517</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D18" s="4"/>
+      <c r="A18" s="1" t="n">
+        <v>2022062518</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D19" s="4"/>
+      <c r="A19" s="1" t="n">
+        <v>2022062519</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D20" s="4"/>
+      <c r="A20" s="1" t="n">
+        <v>2022062520</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D21" s="4"/>
+      <c r="A21" s="1" t="n">
+        <v>2022062521</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D22" s="4"/>
+      <c r="A22" s="1" t="n">
+        <v>2022062522</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="A23" s="1" t="n">
+        <v>2022062523</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>2022062524</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>2022062525</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>2022062526</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>2022062527</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>2022062528</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>2022062529</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>2022062530</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>2022062531</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>2022062532</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>2022062533</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>2022062534</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>2022062535</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1196,7 +1672,7 @@
     <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B712" s="5"/>
-      <c r="C712" s="9"/>
+      <c r="C712" s="8"/>
       <c r="D712" s="4"/>
       <c r="E712" s="6"/>
     </row>
@@ -1232,13 +1708,13 @@
     </row>
     <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B718" s="5"/>
-      <c r="C718" s="10"/>
+      <c r="C718" s="9"/>
       <c r="D718" s="4"/>
       <c r="E718" s="6"/>
     </row>
     <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B719" s="5"/>
-      <c r="C719" s="10"/>
+      <c r="C719" s="9"/>
       <c r="D719" s="4"/>
       <c r="E719" s="6"/>
     </row>
@@ -1304,18 +1780,18 @@
     </row>
     <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B730" s="5"/>
-      <c r="C730" s="11"/>
+      <c r="C730" s="10"/>
       <c r="D730" s="4"/>
       <c r="E730" s="6"/>
     </row>
     <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B731" s="12"/>
+      <c r="B731" s="11"/>
       <c r="C731" s="4"/>
       <c r="D731" s="4"/>
       <c r="E731" s="6"/>
     </row>
     <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B732" s="12"/>
+      <c r="B732" s="11"/>
       <c r="C732" s="4"/>
       <c r="D732" s="4"/>
       <c r="E732" s="6"/>
@@ -1324,7 +1800,7 @@
       <c r="B733" s="5"/>
       <c r="C733" s="4"/>
       <c r="D733" s="4"/>
-      <c r="E733" s="13"/>
+      <c r="E733" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/main/resources/Колеры.xlsx
+++ b/src/main/resources/Колеры.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
   <si>
     <t xml:space="preserve">white</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t xml:space="preserve">apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">яблычны</t>
   </si>
   <si>
     <t xml:space="preserve">#66A657</t>
@@ -489,7 +492,7 @@
   <dimension ref="A1:E733"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36:D49"/>
+      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -862,10 +865,10 @@
         <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -873,13 +876,13 @@
         <v>2022062527</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -887,13 +890,13 @@
         <v>2022062528</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -901,13 +904,13 @@
         <v>2022062529</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -915,13 +918,13 @@
         <v>2022062530</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -929,13 +932,13 @@
         <v>2022062531</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -943,13 +946,13 @@
         <v>2022062532</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -957,13 +960,13 @@
         <v>2022062533</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -971,13 +974,13 @@
         <v>2022062534</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -985,13 +988,13 @@
         <v>2022062535</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/src/main/resources/Колеры.xlsx
+++ b/src/main/resources/Колеры.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="317">
   <si>
     <t xml:space="preserve">white</t>
   </si>
@@ -242,6 +242,735 @@
   </si>
   <si>
     <t xml:space="preserve">#7F6124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">almond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">міндальны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бурштынавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amethyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аметыставы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asparagus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">спаржавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бэжавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">чорны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сіні</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бронзавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">карычневы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">канарэечны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carrot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">маркоўны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chocolate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">шакаладны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cobalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кобальтавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crimson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">малінавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cyan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">блакітны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">цёмна-сіні</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">цёмна-карычневы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">цёмна-зялёны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark pink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">цёмна-ружовы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark salmon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">цёмна-ласасёвы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark turquoise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">цёмна-бірузовы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emerald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">смарагдавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eggplant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">баклажанавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">залаты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">шэры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">зялёны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hot pink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ярка-ружовы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">індыга</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нефрытавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lemon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">лімонны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lilac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бэзавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">olive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аліўкавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аранжавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orchid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">архідэйны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">персікавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">грушавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ружовы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pomegranate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гранатавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pumpkin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гарбузовы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">чырвоны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">рубінавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rosy brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ружава-карычневы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sepia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сепія</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">серабрысты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spring green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ярка-зялёны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steel blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сталёва-сіні</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turquoise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бірузовы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">таматны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wisteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гліцыніевы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">віно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">жоўты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">медны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apricot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">абрыкосавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">american rose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">амерыканская ружа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">antique white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">антычны белы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apple green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">яблычна-зялёны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aquamarine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аквамарынавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">army green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">армейскі зялёны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arsenic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мыш'яковы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">azure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">лазурковы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">латуневы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bright green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bright turquoise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ярка-бірузовы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carmine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кармінавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chestnut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">каштанавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кукурузны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cornflower blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">васільковы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark chestnut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">цёмна-каштанавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark coral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">цёмна-каралавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark indigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">цёмны індыга</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark khaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">цёмны хакі</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark olive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">цёмна-аліўкавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark peach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">цёмна-персікавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark tangerine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">цёмна-мандарынавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fire brick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">карычневата-чырвоны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heliotrope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">геліятроп</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indian red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">індыйскі чырвоны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">хакі</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">светла-карычневы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magenta, fuchsia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пурпурны, пурпуровы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">malachite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">малахітавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mustard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гарчычны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ochre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вохравы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">old gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">старое золата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pale blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бледна-сіні</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pale brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бледна-карычневы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pale carmine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бледна-кармінавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pale chestnut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бледна-каштанавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pale cornflower blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бледна-васільковы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pale magenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бледна-пурпурны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pale pink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бледна-ружавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persian blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">персідскі сіні</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pistacia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">фісташкавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saffron, crocus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">шафранавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sapphire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сапфіравы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swamp green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">балотны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">terracota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тэракотавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark terra cotta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">цёмна-тэракотавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ultramarine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ультрамарынавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vanilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ванільны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vermilion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кінаварны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zaffre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кобальтавая блакіць</t>
+  </si>
+  <si>
+    <t xml:space="preserve">burnt umber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">паленая умбра</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">каралавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">цёмна-бардовы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mauve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ружавата-ліловы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pale yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бледна-жоўты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">рудавата-карычневы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tangerine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мандарынавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salmon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ласасёвы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сіне-зялёны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сіне-фіялетавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">violet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">фіялетавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ліловы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ivory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">слановая косць</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">джынсавы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chartreuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">шартрэз</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep sky blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нябесна-сіні</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fuchsia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пурпуровы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep pink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">насычаны ружовы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">burgundy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бардовы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бялявы</t>
   </si>
 </sst>
 </file>
@@ -491,8 +1220,8 @@
   </sheetPr>
   <dimension ref="A1:E733"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C148" activeCellId="0" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -997,129 +1726,1728 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>2022062600</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>2022062601</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>2022062602</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>2022062603</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>2022062604</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>2022062605</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>2022062606</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>2022062607</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>2022062608</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>2022062609</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>2022062610</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>2022062611</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>2022062612</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>2022062613</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>2022062614</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>2022062615</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>2022062616</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>2022062617</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>2022062618</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>2022062619</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>2022062620</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>2022062621</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>2022062622</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>2022062623</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>2022062624</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>2022062625</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>2022062626</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>2022062627</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>2022062628</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>2022062629</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>2022062630</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>2022062631</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>2022062632</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>2022062633</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>2022062634</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>2022062635</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>2022062636</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>2022062637</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>2022062638</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>2022062639</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>2022062640</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>2022062641</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>2022062642</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>2022062643</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>2022062644</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>2022062645</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>2022062646</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>2022062647</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>2022062648</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>2022062649</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>2022062650</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>2022062651</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>2022062652</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>2022062653</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>2022062654</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>2022062655</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>2022062656</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>2022062657</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>2022062658</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>2022062659</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>2022062660</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>2022062661</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>2022062662</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>2022062663</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>2022062664</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>2022062665</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>2022062666</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>2022062667</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>2022062668</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>2022062669</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>2022062670</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>2022062671</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>2022062672</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>2022062673</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>2022062674</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>2022062675</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>2022062676</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>2022062677</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>2022062678</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>2022062679</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>2022062680</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>2022062681</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>2022062682</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>2022062683</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>2022062684</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>2022062685</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>2022062686</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <v>2022062687</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <v>2022062688</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>2022062689</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>2022062690</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>2022062691</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>2022062692</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>2022062693</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>2022062694</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>2022062695</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>2022062696</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>2022062697</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>2022062698</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <v>2022062699</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>2022062700</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>2022062701</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>2022062702</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>2022062703</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>2022062704</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>2022062705</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>2022062706</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>2022062707</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>2022062708</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
+        <v>2022062709</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
+        <v>2022062710</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <v>2022062711</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <v>2022062712</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="n">
+        <v>2022062713</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
+        <v>2022062714</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="n">
+        <v>2022062715</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="n">
+        <v>2022062716</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="n">
+        <v>2022062717</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="n">
+        <v>2022062718</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="n">
+        <v>2022062719</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="n">
+        <v>2022062720</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <v>2022062721</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <v>2022062722</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
